--- a/templates/global_report_template v3.xlsx
+++ b/templates/global_report_template v3.xlsx
@@ -7,10 +7,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9930"/>
   </bookViews>
   <sheets>
-    <sheet name="Отчет" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="2" r:id="rId1"/>
+    <sheet name="rules" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Отчет!$A$5:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$A$8:$H$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Завершили планирование</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Актуальность данных</t>
   </si>
@@ -42,42 +40,128 @@
     <t>Сотрудников всего</t>
   </si>
   <si>
-    <t>Отчет по заполнению графика отпусков сотрудников</t>
-  </si>
-  <si>
-    <t>Сотрудников осталось</t>
-  </si>
-  <si>
     <t>Процент завершения</t>
   </si>
   <si>
-    <t>Дата заполнения: 16.12.2023 16:28:11</t>
-  </si>
-  <si>
-    <t>Количество сотрудников: 88</t>
-  </si>
-  <si>
-    <t>Закончили планирование: 88 (100%)</t>
-  </si>
-  <si>
     <t>Подразделение 1</t>
+  </si>
+  <si>
+    <t>Дата обновления</t>
+  </si>
+  <si>
+    <t>Отчет общий</t>
+  </si>
+  <si>
+    <t>Наименование отчета</t>
+  </si>
+  <si>
+    <t>общий</t>
+  </si>
+  <si>
+    <t>Всего блоков</t>
+  </si>
+  <si>
+    <t>Блоков заполнивших планирование</t>
+  </si>
+  <si>
+    <t>куда</t>
+  </si>
+  <si>
+    <t>что</t>
+  </si>
+  <si>
+    <t>тип</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Заполнили форму некорректно</t>
+  </si>
+  <si>
+    <t>Не заполнили форму</t>
+  </si>
+  <si>
+    <t>Всего сотрудников</t>
+  </si>
+  <si>
+    <t>Считается в коде просто номер строки с 1</t>
+  </si>
+  <si>
+    <t>report_department1</t>
+  </si>
+  <si>
+    <t>читается она оттуда же куда пишется report_department1 в отчете по блоку</t>
+  </si>
+  <si>
+    <t>Сколько сотрудников в блоке имеют статус Форма заполнена корректно процент, считается кодом</t>
+  </si>
+  <si>
+    <t>Сколько сотрудников в блоке считается кодом</t>
+  </si>
+  <si>
+    <t>Сколько сотрудников в блоке имеют статус Форма заполнена корректно количество, считается кодом</t>
+  </si>
+  <si>
+    <t>Сколько сотрудников в блоке имеют статус формы Форма заполнена некорректно, считается кодом, количество</t>
+  </si>
+  <si>
+    <t>Сколько сотрудников в блоке имеют статус форма не заполнена считается кодом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата формирования общего отчета </t>
+  </si>
+  <si>
+    <t>Дата отчета по блоку читается оттуда же куда пишется update_date в отчете по блоку</t>
+  </si>
+  <si>
+    <t>update_date</t>
+  </si>
+  <si>
+    <t>update_date2</t>
+  </si>
+  <si>
+    <t>Сколько блоков кодом посчитать</t>
+  </si>
+  <si>
+    <t>blocks_count</t>
+  </si>
+  <si>
+    <t>not_filled</t>
+  </si>
+  <si>
+    <t>incorrect_filled</t>
+  </si>
+  <si>
+    <t>correct_filled</t>
+  </si>
+  <si>
+    <t>employees_count</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>row_number2</t>
+  </si>
+  <si>
+    <t>Заполнили форму корректно</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,7 +184,7 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -108,24 +192,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +238,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -188,18 +306,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -213,47 +410,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,127 +803,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:R8"/>
+  <sheetPr codeName="Лист2"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="7" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="18" customWidth="1"/>
+    <col min="3" max="8" width="30.7109375" style="18" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" s="25" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4">
+        <v>100</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="12">
+        <f>D9-E9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="C11" s="10">
+        <f>SUM(E9:E9)/SUM(D9:D9)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <f xml:space="preserve"> SUM(D9:D9)</f>
+        <v>100</v>
+      </c>
+      <c r="E11" s="9">
+        <f xml:space="preserve"> SUM(E9:E9)</f>
+        <v>100</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="14">
+        <f>SUM(G9:G9)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>100</v>
-      </c>
-      <c r="E6" s="6">
-        <v>100</v>
-      </c>
-      <c r="F6" s="17">
-        <f t="shared" ref="F6" si="0">D6-E6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="str">
-        <f t="shared" ref="G6" si="1">SUBSTITUTE(J6, "Дата заполнения:", "")</f>
-        <v xml:space="preserve"> 16.12.2023 16:28:11</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="str">
-        <f>SUBSTITUTE(MID(O6,SEARCH(":",O6)+1,3),"","")</f>
-        <v xml:space="preserve"> 88</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="13">
-        <f>SUM(E6:E6)/SUM(D6:D6)</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <f xml:space="preserve"> SUM(D6:D6)</f>
-        <v>100</v>
-      </c>
-      <c r="E8" s="12">
-        <f xml:space="preserve"> SUM(E6:E6)</f>
-        <v>100</v>
-      </c>
-      <c r="F8" s="19">
-        <f>SUM(F6:F6)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="20"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="3:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="26"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C6:C8">
-    <cfRule type="dataBar" priority="4">
+  <autoFilter ref="A8:H8"/>
+  <mergeCells count="11">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C9:C11">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -660,7 +1013,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B993B0C3-AD16-4E7A-BF12-1D6DADFD26ED}</x14:id>
+          <x14:id>{CD661559-AB9B-446C-99A1-12D11E240B91}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -671,7 +1024,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B993B0C3-AD16-4E7A-BF12-1D6DADFD26ED}">
+          <x14:cfRule type="dataBar" id="{CD661559-AB9B-446C-99A1-12D11E240B91}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -679,10 +1032,192 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C6:C8</xm:sqref>
+          <xm:sqref>C9:C11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="76" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>Report!A8</f>
+        <v>№</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>Report!B8</f>
+        <v>Блок</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>Report!C8</f>
+        <v>Процент завершения</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>Report!D8</f>
+        <v>Сотрудников всего</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>Report!E8</f>
+        <v>Заполнили форму корректно</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>Report!F8</f>
+        <v>Заполнили форму некорректно</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>Report!G8</f>
+        <v>Не заполнили форму</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>Report!H8</f>
+        <v>Актуальность данных</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>Report!C3</f>
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>Report!C4</f>
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>